--- a/preliminary user study - tool demonstration/preliminary user study - dataset.xlsx
+++ b/preliminary user study - tool demonstration/preliminary user study - dataset.xlsx
@@ -228,7 +228,7 @@
     <t>No, I do not see much practical need for my use</t>
   </si>
   <si>
-    <t>Parabéns hair work</t>
+    <t>Good job!</t>
   </si>
   <si>
     <t>It is useful both for finding new people to collaborate with and for managing a potential project.</t>
